--- a/Audit/Câu hỏi audit.xlsx
+++ b/Audit/Câu hỏi audit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24EE45B-BA90-45A5-96A1-AC5984A7C867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,11 +526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
